--- a/MIS/MIS Timeline 2021.xlsx
+++ b/MIS/MIS Timeline 2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Guanzon\Reports\MIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE42DAD-0BC6-4988-8EF9-2E6257080936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7DCC9EA3-7660-4AAD-8DAE-515312DE5050}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Projects!$A$1:$M$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$J$67</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Michael Cuison</author>
   </authors>
   <commentList>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{7C359671-644C-419C-942B-BF6E78A0D5A7}">
+    <comment ref="H14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,12 +72,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Michael Cuison</author>
   </authors>
   <commentList>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{60F2A641-7C31-461A-98C8-6406C86B5BFB}">
+    <comment ref="C13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,12 +107,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Michael Cuison</author>
   </authors>
   <commentList>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{74285475-4765-4696-863B-145C2E7BB9F9}">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="193">
   <si>
     <t>Type</t>
   </si>
@@ -674,13 +673,61 @@
   </si>
   <si>
     <t>Parts</t>
+  </si>
+  <si>
+    <t>Purchsing Approval(Engrs, S' Jo, S' Guan) - 2020</t>
+  </si>
+  <si>
+    <t>Facebook Like Promo - 2020</t>
+  </si>
+  <si>
+    <t>Notification for Collecting &amp; Selling Branch - 2020</t>
+  </si>
+  <si>
+    <t>Cartrade Credit Application - 2020</t>
+  </si>
+  <si>
+    <t>Collection Effeciency Monitoring thru DCP - 2020</t>
+  </si>
+  <si>
+    <t>Add Branch Inquiry searching in Customer Order - 2020</t>
+  </si>
+  <si>
+    <t>Allocate Inventory for SP Customer Order - 2020</t>
+  </si>
+  <si>
+    <t>POS like Barcode Reading - 2020</t>
+  </si>
+  <si>
+    <t>Collection Monitoring(monitored by branch) - 2020</t>
+  </si>
+  <si>
+    <t>Rebate Escalation - 2020</t>
+  </si>
+  <si>
+    <t>Disbursement(Detailed) - 2020</t>
+  </si>
+  <si>
+    <t>General Journal - 2020</t>
+  </si>
+  <si>
+    <t>MP Purchasing via eMail</t>
+  </si>
+  <si>
+    <t>POS - Food - 2020</t>
+  </si>
+  <si>
+    <t>Petty Cash (Engineering) - 2020</t>
+  </si>
+  <si>
+    <t>MP/MC Credit Application - 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,6 +764,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -808,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -826,6 +879,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1151,13 +1205,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC9D60C-936E-4D03-BFAD-A0C741A02720}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,20 +1230,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="11" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -1228,31 +1282,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="C3" s="9">
-        <v>70010000</v>
+        <v>70240000</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E3" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G3" s="9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H3" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I3" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J3" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
@@ -1260,31 +1314,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="C4" s="9">
-        <v>10010000</v>
+        <v>70010000</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>20</v>
+      </c>
+      <c r="G4" s="9">
+        <v>20</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
         <v>30</v>
       </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="J4" s="9">
         <v>30</v>
-      </c>
-      <c r="H4" s="9">
-        <v>45</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
@@ -1295,28 +1349,28 @@
         <v>34</v>
       </c>
       <c r="C5" s="9">
-        <v>40010000</v>
+        <v>10010000</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H5" s="9">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="I5" s="9">
         <v>0</v>
       </c>
       <c r="J5" s="9">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
@@ -1327,60 +1381,60 @@
         <v>34</v>
       </c>
       <c r="C6" s="9">
+        <v>40010000</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="9">
+        <v>60</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>60</v>
+      </c>
+      <c r="H6" s="9">
+        <v>90</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="9">
         <v>20010000</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="9">
-        <v>15</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>15</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="E7" s="9">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>15</v>
+      </c>
+      <c r="H7" s="9">
         <v>23</v>
       </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
         <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1">
-        <v>60010000</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1391,10 +1445,10 @@
         <v>34</v>
       </c>
       <c r="C8" s="1">
-        <v>60020000</v>
+        <v>60010000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -1423,28 +1477,28 @@
         <v>34</v>
       </c>
       <c r="C9" s="1">
-        <v>60030000</v>
+        <v>60020000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1452,31 +1506,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
-        <v>70020000</v>
+        <v>60030000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I10" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1487,10 +1541,10 @@
         <v>163</v>
       </c>
       <c r="C11" s="1">
-        <v>70030000</v>
+        <v>70020000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1516,63 +1570,63 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1">
+        <v>70030000</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>23</v>
+      </c>
+      <c r="J12" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="11">
         <v>20020000</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="11">
         <v>2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="11">
         <v>8</v>
       </c>
-      <c r="G12" s="1">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="G13" s="11">
+        <v>10</v>
+      </c>
+      <c r="H13" s="11">
         <v>3</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="11">
         <v>12</v>
       </c>
-      <c r="J12" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1">
-        <v>20030000</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1">
-        <v>8</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>8</v>
+      <c r="J13" s="11">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1583,28 +1637,28 @@
         <v>34</v>
       </c>
       <c r="C14" s="1">
-        <v>10020000</v>
+        <v>20030000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1">
         <v>8</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
         <v>8</v>
-      </c>
-      <c r="H14" s="1">
-        <v>12</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1615,28 +1669,28 @@
         <v>34</v>
       </c>
       <c r="C15" s="1">
-        <v>20040000</v>
+        <v>10020000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H15" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1644,31 +1698,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1">
-        <v>70040000</v>
+        <v>20040000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I16" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1679,28 +1733,28 @@
         <v>163</v>
       </c>
       <c r="C17" s="1">
-        <v>70050000</v>
+        <v>70040000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1711,28 +1765,28 @@
         <v>163</v>
       </c>
       <c r="C18" s="1">
-        <v>70060000</v>
+        <v>70050000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1740,31 +1794,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="C19" s="1">
-        <v>20050000</v>
+        <v>70060000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H19" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J19" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1775,28 +1829,28 @@
         <v>34</v>
       </c>
       <c r="C20" s="1">
-        <v>20060000</v>
+        <v>20050000</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1807,28 +1861,28 @@
         <v>34</v>
       </c>
       <c r="C21" s="1">
-        <v>20070000</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>20060000</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1836,31 +1890,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
-        <v>70070000</v>
+        <v>20070000</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1868,31 +1922,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="C23" s="1">
-        <v>20080000</v>
+        <v>70070000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G23" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H23" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1903,28 +1957,28 @@
         <v>34</v>
       </c>
       <c r="C24" s="1">
-        <v>10030000</v>
+        <v>20080000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="E24" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H24" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1932,28 +1986,28 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1">
-        <v>70080000</v>
+        <v>10030000</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>10</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
         <v>15</v>
@@ -1967,10 +2021,10 @@
         <v>163</v>
       </c>
       <c r="C26" s="1">
-        <v>70090000</v>
+        <v>70080000</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -1999,10 +2053,10 @@
         <v>163</v>
       </c>
       <c r="C27" s="1">
-        <v>70100000</v>
+        <v>70090000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -2028,31 +2082,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="C28" s="1">
-        <v>10040000</v>
+        <v>70100000</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H28" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J28" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2060,31 +2114,31 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1">
-        <v>70110000</v>
+        <v>10040000</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I29" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2092,31 +2146,31 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="C30" s="1">
-        <v>10050000</v>
+        <v>70110000</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E30" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G30" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H30" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J30" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2127,28 +2181,28 @@
         <v>34</v>
       </c>
       <c r="C31" s="1">
-        <v>20090000</v>
+        <v>10050000</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E31" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H31" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2159,28 +2213,28 @@
         <v>34</v>
       </c>
       <c r="C32" s="1">
-        <v>10060000</v>
+        <v>20090000</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H32" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2188,31 +2242,31 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
-        <v>70120000</v>
+        <v>10060000</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I33" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2220,31 +2274,31 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="C34" s="1">
-        <v>10070000</v>
+        <v>70120000</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E34" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H34" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J34" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2252,31 +2306,31 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
-        <v>70130000</v>
+        <v>10070000</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I35" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2284,31 +2338,31 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="C36" s="1">
-        <v>10080000</v>
+        <v>70130000</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E36" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G36" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H36" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J36" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2319,28 +2373,28 @@
         <v>34</v>
       </c>
       <c r="C37" s="1">
-        <v>10090000</v>
+        <v>10080000</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1">
         <v>5</v>
       </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
         <v>5</v>
-      </c>
-      <c r="H37" s="1">
-        <v>8</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2351,28 +2405,28 @@
         <v>34</v>
       </c>
       <c r="C38" s="1">
-        <v>10100000</v>
+        <v>10090000</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E38" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H38" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
       </c>
       <c r="J38" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2383,28 +2437,28 @@
         <v>34</v>
       </c>
       <c r="C39" s="1">
-        <v>10110000</v>
+        <v>10100000</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="E39" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
       <c r="G39" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H39" s="1">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
       </c>
       <c r="J39" s="1">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2415,28 +2469,28 @@
         <v>34</v>
       </c>
       <c r="C40" s="1">
-        <v>20100000</v>
+        <v>10110000</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="E40" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H40" s="1">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2447,28 +2501,28 @@
         <v>34</v>
       </c>
       <c r="C41" s="1">
-        <v>10120000</v>
+        <v>20100000</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E41" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H41" s="1">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
       </c>
       <c r="J41" s="1">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2479,28 +2533,28 @@
         <v>34</v>
       </c>
       <c r="C42" s="1">
-        <v>20110000</v>
+        <v>10120000</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E42" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H42" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2511,28 +2565,28 @@
         <v>34</v>
       </c>
       <c r="C43" s="1">
-        <v>20120000</v>
+        <v>20110000</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E43" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H43" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
       </c>
       <c r="J43" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2543,28 +2597,28 @@
         <v>34</v>
       </c>
       <c r="C44" s="1">
-        <v>10130000</v>
+        <v>20120000</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E44" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H44" s="1">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2575,28 +2629,28 @@
         <v>34</v>
       </c>
       <c r="C45" s="1">
-        <v>10140000</v>
+        <v>10130000</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E45" s="1">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H45" s="1">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2607,28 +2661,28 @@
         <v>34</v>
       </c>
       <c r="C46" s="1">
-        <v>10150000</v>
+        <v>10140000</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E46" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H46" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2639,10 +2693,10 @@
         <v>34</v>
       </c>
       <c r="C47" s="1">
-        <v>10160000</v>
+        <v>10150000</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E47" s="1">
         <v>20</v>
@@ -2671,28 +2725,28 @@
         <v>34</v>
       </c>
       <c r="C48" s="1">
-        <v>40020000</v>
+        <v>10160000</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E48" s="1">
+        <v>20</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>20</v>
+      </c>
+      <c r="H48" s="1">
         <v>30</v>
       </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
         <v>30</v>
-      </c>
-      <c r="H48" s="1">
-        <v>45</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1">
-        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2700,31 +2754,31 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1">
-        <v>70140000</v>
+        <v>40020000</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F49" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H49" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I49" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J49" s="1">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2735,7 +2789,7 @@
         <v>163</v>
       </c>
       <c r="C50" s="1">
-        <v>70150000</v>
+        <v>70140000</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>7</v>
@@ -2744,19 +2798,19 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G50" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J50" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2764,31 +2818,31 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="C51" s="1">
-        <v>60040000</v>
+        <v>70150000</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="E51" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G51" s="1">
         <v>10</v>
       </c>
       <c r="H51" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I51" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J51" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2796,31 +2850,31 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="C52" s="1">
-        <v>70160000</v>
+        <v>60040000</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F52" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>10</v>
       </c>
       <c r="H52" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I52" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2831,28 +2885,28 @@
         <v>163</v>
       </c>
       <c r="C53" s="1">
-        <v>70170000</v>
+        <v>70160000</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G53" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J53" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2860,31 +2914,31 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="C54" s="1">
-        <v>60050000</v>
+        <v>70170000</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="E54" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G54" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H54" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J54" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2892,31 +2946,31 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="C55" s="1">
-        <v>70180000</v>
+        <v>60050000</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F55" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>10</v>
       </c>
       <c r="H55" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I55" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J55" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2927,10 +2981,10 @@
         <v>163</v>
       </c>
       <c r="C56" s="1">
-        <v>70190000</v>
+        <v>70180000</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -2959,28 +3013,28 @@
         <v>163</v>
       </c>
       <c r="C57" s="1">
-        <v>70200000</v>
+        <v>70190000</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G57" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J57" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2991,28 +3045,28 @@
         <v>163</v>
       </c>
       <c r="C58" s="1">
-        <v>70210000</v>
+        <v>70200000</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G58" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J58" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3023,28 +3077,28 @@
         <v>163</v>
       </c>
       <c r="C59" s="1">
-        <v>70220000</v>
+        <v>70210000</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G59" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J59" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3055,10 +3109,10 @@
         <v>163</v>
       </c>
       <c r="C60" s="1">
-        <v>70230000</v>
+        <v>70220000</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -3087,25 +3141,25 @@
         <v>163</v>
       </c>
       <c r="C61" s="1">
-        <v>60060000</v>
+        <v>70230000</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E61" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G61" s="1">
         <v>10</v>
       </c>
       <c r="H61" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J61" s="1">
         <v>15</v>
@@ -3119,25 +3173,25 @@
         <v>163</v>
       </c>
       <c r="C62" s="1">
-        <v>60070000</v>
+        <v>60060000</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G62" s="1">
         <v>10</v>
       </c>
       <c r="H62" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J62" s="1">
         <v>15</v>
@@ -3145,98 +3199,98 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="C63" s="1">
-        <v>60080000</v>
+        <v>60070000</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="E63" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G63" s="1">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H63" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J63" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
+        <v>97</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="1">
+        <v>60080000</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>45</v>
+      </c>
+      <c r="H64" s="1">
+        <v>45</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>98</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" s="1">
+      <c r="B65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="1">
         <v>10170000</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E65" s="1">
         <v>3</v>
       </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1">
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
         <v>3</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H65" s="1">
         <v>5</v>
       </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1">
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="9">
-        <v>99</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C65" s="9">
-        <v>70240000</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
-        <v>8</v>
-      </c>
-      <c r="G65" s="9">
-        <v>8</v>
-      </c>
-      <c r="H65" s="9">
-        <v>0</v>
-      </c>
-      <c r="I65" s="9">
-        <v>12</v>
-      </c>
-      <c r="J65" s="9">
-        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3305,32 +3359,32 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="E68" s="9">
-        <f>SUM(E3:E67)</f>
-        <v>454</v>
+        <f>SUM(E4:E67)</f>
+        <v>434</v>
       </c>
       <c r="F68" s="9">
-        <f t="shared" ref="F68:J68" si="0">SUM(F3:F67)</f>
-        <v>328</v>
+        <f t="shared" ref="F68:J68" si="0">SUM(F4:F67)</f>
+        <v>340</v>
       </c>
       <c r="G68" s="9">
         <f t="shared" si="0"/>
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="H68" s="9">
         <f t="shared" si="0"/>
-        <v>651</v>
+        <v>621</v>
       </c>
       <c r="I68" s="9">
         <f t="shared" si="0"/>
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="J68" s="9">
         <f t="shared" si="0"/>
-        <v>1146</v>
+        <v>1134</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J67">
+  <sortState ref="A3:J67">
     <sortCondition ref="A3:A67"/>
   </sortState>
   <mergeCells count="3">
@@ -3344,11 +3398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B239D3-E913-4C7F-A4DE-39C7B9FDE5BB}">
-  <dimension ref="A1:C73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B75" sqref="B74:B75"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3577,87 +3631,87 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>10190000</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="11">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>10200000</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="11">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>10210000</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="11">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>10220000</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="11">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>10230000</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="11">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>10240000</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="11">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
         <v>20000000</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20010000</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="1">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>20020000</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="1">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>20030000</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="1">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>20040000</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="1">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>20050000</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="1">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>20060000</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="1">
-        <v>20000000</v>
-      </c>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>20070000</v>
+        <v>20010000</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1">
         <v>20000000</v>
@@ -3665,10 +3719,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>20080000</v>
+        <v>20020000</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1">
         <v>20000000</v>
@@ -3676,10 +3730,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>20090000</v>
+        <v>20030000</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1">
         <v>20000000</v>
@@ -3687,10 +3741,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>20100000</v>
+        <v>20040000</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="C31" s="1">
         <v>20000000</v>
@@ -3698,10 +3752,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>20110000</v>
+        <v>20050000</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1">
         <v>20000000</v>
@@ -3709,352 +3763,352 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>20120000</v>
+        <v>20060000</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1">
         <v>20000000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
-        <v>40000000</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="9"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>20070000</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>20080000</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="1">
+        <v>20000000</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>40010000</v>
+        <v>20090000</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C36" s="1">
-        <v>40000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>40020000</v>
+        <v>20100000</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C37" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>20110000</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>20120000</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>20130000</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="11">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>20140000</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="11">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>20150000</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="11">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>20160000</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="11">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>20170000</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="11">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>20180000</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="11">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>20190000</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="11">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>30010000</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
-        <v>50000000</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
-        <v>60000000</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>60010000</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="1">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>60020000</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="1">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>60030000</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="1">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>60040000</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="1">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>60050000</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="1">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>60060000</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="1">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>60070000</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="1">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>60080000</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="1">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
-        <v>70000000</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="9"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>70010000</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C49" s="1">
-        <v>70000000</v>
-      </c>
+      <c r="B49" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>70020000</v>
+        <v>40010000</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="C50" s="1">
-        <v>70000000</v>
+        <v>40000000</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>70030000</v>
+        <v>40020000</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="C51" s="1">
-        <v>70000000</v>
+        <v>40000000</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>70040000</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="1">
-        <v>70000000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>70050000</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="1">
-        <v>70000000</v>
-      </c>
+      <c r="A52" s="11">
+        <v>40030000</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="11">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>50000000</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>70060000</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="1">
-        <v>70000000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>70070000</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="1">
-        <v>70000000</v>
-      </c>
+      <c r="A54" s="11">
+        <v>50010000</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" s="11">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>60000000</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>70080000</v>
+        <v>60010000</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C56" s="1">
-        <v>70000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>70090000</v>
+        <v>60020000</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C57" s="1">
-        <v>70000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>70100000</v>
+        <v>60030000</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="C58" s="1">
-        <v>70000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>70110000</v>
+        <v>60040000</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="C59" s="1">
-        <v>70000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>70120000</v>
+        <v>60050000</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C60" s="1">
-        <v>70000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>70130000</v>
+        <v>60060000</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C61" s="1">
-        <v>70000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>70140000</v>
+        <v>60070000</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C62" s="1">
-        <v>70000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>70150000</v>
+        <v>60080000</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C63" s="1">
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
         <v>70000000</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>70160000</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="1">
-        <v>70000000</v>
-      </c>
+      <c r="B64" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>70170000</v>
+        <v>70010000</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="C65" s="1">
         <v>70000000</v>
@@ -4062,10 +4116,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>70180000</v>
+        <v>70020000</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C66" s="1">
         <v>70000000</v>
@@ -4073,10 +4127,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>70190000</v>
+        <v>70030000</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="C67" s="1">
         <v>70000000</v>
@@ -4084,10 +4138,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>70200000</v>
+        <v>70040000</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C68" s="1">
         <v>70000000</v>
@@ -4095,10 +4149,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>70210000</v>
+        <v>70050000</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C69" s="1">
         <v>70000000</v>
@@ -4106,10 +4160,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>70220000</v>
+        <v>70060000</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C70" s="1">
         <v>70000000</v>
@@ -4117,10 +4171,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>70230000</v>
+        <v>70070000</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C71" s="1">
         <v>70000000</v>
@@ -4128,10 +4182,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70240000</v>
+        <v>70080000</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C72" s="1">
         <v>70000000</v>
@@ -4139,25 +4193,202 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>70250000</v>
+        <v>70090000</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C73" s="1">
         <v>70000000</v>
       </c>
     </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>70100000</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>70110000</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>70120000</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>70130000</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>70140000</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>70150000</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>70160000</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>70170000</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>70180000</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>70190000</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>70200000</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>70210000</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>70220000</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>70230000</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>70240000</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>70250000</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
+  <sortState ref="A2:C75">
     <sortCondition ref="A2:A75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF088AD-EE22-478E-9BAA-953C153FCDF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4211,12 +4442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C2A980-FD9B-4882-9ABA-AA8B80462837}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C49"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4238,15 +4468,16 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>10000000</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10100000</v>
       </c>
@@ -4257,7 +4488,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10101000</v>
       </c>
@@ -4268,7 +4499,7 @@
         <v>10100000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10102000</v>
       </c>
@@ -4279,7 +4510,7 @@
         <v>10100000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10103000</v>
       </c>
@@ -4290,7 +4521,7 @@
         <v>10100000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10104000</v>
       </c>
@@ -4301,7 +4532,7 @@
         <v>10100000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10200000</v>
       </c>
@@ -4312,7 +4543,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10300000</v>
       </c>
@@ -4323,7 +4554,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10400000</v>
       </c>
@@ -4334,7 +4565,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10500000</v>
       </c>
@@ -4345,7 +4576,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10600000</v>
       </c>
@@ -4356,7 +4587,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10700000</v>
       </c>
@@ -4367,7 +4598,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10800000</v>
       </c>
@@ -4378,7 +4609,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10801000</v>
       </c>
@@ -4389,7 +4620,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10801000</v>
       </c>
@@ -4400,7 +4631,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10802000</v>
       </c>
@@ -4411,7 +4642,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10803000</v>
       </c>
@@ -4422,7 +4653,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>10804000</v>
       </c>
@@ -4433,7 +4664,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10805000</v>
       </c>
@@ -4444,7 +4675,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>10900000</v>
       </c>
@@ -4455,7 +4686,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11000000</v>
       </c>
@@ -4466,7 +4697,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>11100000</v>
       </c>
@@ -4477,7 +4708,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>11102000</v>
       </c>
@@ -4488,7 +4719,7 @@
         <v>11100000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>11103000</v>
       </c>
@@ -4499,7 +4730,7 @@
         <v>11100000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>11200000</v>
       </c>
@@ -4510,7 +4741,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>11201000</v>
       </c>
@@ -4521,7 +4752,7 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>11300000</v>
       </c>
@@ -4532,7 +4763,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>11400000</v>
       </c>
@@ -4543,7 +4774,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>11500000</v>
       </c>
@@ -4554,7 +4785,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>11600000</v>
       </c>
@@ -4565,15 +4796,16 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
         <v>20000000</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>20100000</v>
       </c>
@@ -4584,7 +4816,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>20200000</v>
       </c>
@@ -4595,7 +4827,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>20300000</v>
       </c>
@@ -4606,15 +4838,16 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
         <v>30000000</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30100000</v>
       </c>
@@ -4625,7 +4858,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30200000</v>
       </c>
@@ -4636,15 +4869,16 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
         <v>40000000</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40100000</v>
       </c>
@@ -4655,7 +4889,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40100000</v>
       </c>
@@ -4666,31 +4900,34 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <v>50000000</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
         <v>60000000</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
         <v>60101000</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="9" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>60101000</v>
       </c>
@@ -4701,7 +4938,7 @@
         <v>60000000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>60102000</v>
       </c>
@@ -4712,7 +4949,7 @@
         <v>60000000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>60103000</v>
       </c>
@@ -4723,7 +4960,7 @@
         <v>60000000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>60104000</v>
       </c>
@@ -4734,15 +4971,16 @@
         <v>60000000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
         <v>70000000</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>70100000</v>
       </c>
@@ -4753,7 +4991,7 @@
         <v>70000000</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>70101000</v>
       </c>
@@ -4764,7 +5002,7 @@
         <v>70100000</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>70101001</v>
       </c>
@@ -4775,7 +5013,7 @@
         <v>70101000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>70101002</v>
       </c>
@@ -4786,7 +5024,7 @@
         <v>70101000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>70102000</v>
       </c>
@@ -4797,7 +5035,7 @@
         <v>70100000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>70103000</v>
       </c>
@@ -4808,7 +5046,7 @@
         <v>70100000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>70200000</v>
       </c>
@@ -4819,7 +5057,7 @@
         <v>70000000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>70201000</v>
       </c>
@@ -4830,7 +5068,7 @@
         <v>70200000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>70202000</v>
       </c>
@@ -4841,7 +5079,7 @@
         <v>70200000</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>70203000</v>
       </c>
@@ -4852,7 +5090,7 @@
         <v>70200000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>70204000</v>
       </c>
@@ -4863,7 +5101,7 @@
         <v>70200000</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>70205000</v>
       </c>
@@ -4874,7 +5112,7 @@
         <v>70200000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>70206000</v>
       </c>
@@ -4885,7 +5123,7 @@
         <v>70200000</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>70300000</v>
       </c>
@@ -4896,7 +5134,7 @@
         <v>70000000</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>70301000</v>
       </c>
@@ -4907,7 +5145,7 @@
         <v>70300000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>70302000</v>
       </c>
@@ -4918,7 +5156,7 @@
         <v>70300000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>70400000</v>
       </c>
@@ -4929,7 +5167,7 @@
         <v>70000000</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>70401000</v>
       </c>
@@ -4940,7 +5178,7 @@
         <v>70400000</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>70402000</v>
       </c>
@@ -4951,7 +5189,7 @@
         <v>70400000</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>70500000</v>
       </c>
@@ -4962,7 +5200,7 @@
         <v>70000000</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70501000</v>
       </c>
@@ -4973,7 +5211,7 @@
         <v>70500000</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70502000</v>
       </c>
@@ -4984,7 +5222,7 @@
         <v>70500000</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70600000</v>
       </c>
@@ -4995,7 +5233,7 @@
         <v>70000000</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>70601000</v>
       </c>
@@ -5006,7 +5244,7 @@
         <v>70600000</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>70602000</v>
       </c>
@@ -5017,7 +5255,7 @@
         <v>70600000</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>70700000</v>
       </c>
@@ -5028,7 +5266,7 @@
         <v>70000000</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>70701000</v>
       </c>
@@ -5039,7 +5277,7 @@
         <v>70700000</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>70702000</v>
       </c>
@@ -5050,7 +5288,7 @@
         <v>70700000</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>70703000</v>
       </c>
@@ -5061,7 +5299,7 @@
         <v>70700000</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>70704000</v>
       </c>
@@ -5072,7 +5310,7 @@
         <v>70700000</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>70705000</v>
       </c>
@@ -5083,7 +5321,7 @@
         <v>70700000</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>70706000</v>
       </c>
@@ -5094,7 +5332,7 @@
         <v>70700000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>70800000</v>
       </c>
@@ -5105,7 +5343,7 @@
         <v>70000000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>70801000</v>
       </c>
@@ -5116,7 +5354,7 @@
         <v>70800000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>70900000</v>
       </c>
@@ -5127,7 +5365,7 @@
         <v>70000000</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>70901000</v>
       </c>
@@ -5139,12 +5377,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C85" xr:uid="{5F37FA38-B26D-427A-A84B-A6D4C90DEF28}">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C85">
+  <sortState ref="A2:C85">
     <sortCondition ref="A2:A85"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5152,7 +5385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D325BB-5A0B-4887-9CC6-3552A6E09C40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N89"/>
   <sheetViews>
@@ -7885,14 +8118,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M87" xr:uid="{7020FD84-C052-4819-95B8-A6A2E8CB08A9}">
+  <autoFilter ref="A1:M87">
     <filterColumn colId="1">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L85">
+  <sortState ref="A2:L85">
     <sortCondition ref="B2:B86"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7902,10 +8135,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F272A91-5439-4ADF-8BA0-D8E3F1ACF159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -9582,11 +9815,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF61F65E-FF97-4AEE-A04B-C9989EFB935B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10311,7 +10544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E4EFE6-2A51-4159-BB66-3558163C45DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
